--- a/ElectionsUK/resources/spreadsheet.xlsx
+++ b/ElectionsUK/resources/spreadsheet.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2015" sheetId="1" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Uk2015__1" localSheetId="0">Sheet1!$A$3:$H$18</definedName>
-    <definedName name="Uk2017__1" localSheetId="0">Sheet1!$A$19:$H$29</definedName>
+    <definedName name="Uk2015__1" localSheetId="0">'2015'!$A$3:$H$18</definedName>
+    <definedName name="Uk2017__1" localSheetId="0">'2015'!$A$19:$H$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,128 +484,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2015</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1454436</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30.1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2">
+        <v>707147</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17.7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>59</v>
       </c>
       <c r="E4" s="2">
-        <v>1454436</v>
+        <v>434097</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>14.9</v>
       </c>
       <c r="G4" s="1">
-        <v>30.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>59</v>
       </c>
       <c r="E5" s="2">
-        <v>707147</v>
+        <v>219675</v>
       </c>
       <c r="F5" s="1">
-        <v>24.3</v>
+        <v>7.5</v>
       </c>
       <c r="G5" s="1">
-        <v>17.7</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
-        <v>434097</v>
+        <v>47078</v>
       </c>
       <c r="F6" s="1">
-        <v>14.9</v>
+        <v>1.6</v>
       </c>
       <c r="G6" s="1">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
-        <v>219675</v>
+        <v>39205</v>
       </c>
       <c r="F7" s="1">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="1">
-        <v>11.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -614,44 +655,44 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>47078</v>
+        <v>1807</v>
       </c>
       <c r="F8" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>32</v>
-      </c>
       <c r="E9" s="2">
-        <v>39205</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -660,21 +701,21 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>1807</v>
+        <v>1467</v>
       </c>
       <c r="F10" s="1">
         <v>0.1</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+      <c r="G10" s="1">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -683,21 +724,21 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>172</v>
+        <v>895</v>
       </c>
       <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>0.1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -709,18 +750,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>1467</v>
+        <v>289</v>
       </c>
       <c r="F12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -729,268 +770,25 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
-        <v>895</v>
+        <v>2649</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
         <v>0.1</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>289</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2649</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
         <v>2910465</v>
       </c>
-      <c r="F16">
+      <c r="F14">
         <v>71.099999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>-21</v>
-      </c>
-      <c r="D22">
-        <v>59</v>
-      </c>
-      <c r="E22">
-        <v>977569</v>
-      </c>
-      <c r="F22">
-        <v>36.9</v>
-      </c>
-      <c r="G22">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>59</v>
-      </c>
-      <c r="E23">
-        <v>757949</v>
-      </c>
-      <c r="F23">
-        <v>28.6</v>
-      </c>
-      <c r="G23">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>59</v>
-      </c>
-      <c r="E24">
-        <v>717007</v>
-      </c>
-      <c r="F24">
-        <v>27.1</v>
-      </c>
-      <c r="G24">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>59</v>
-      </c>
-      <c r="E25">
-        <v>179061</v>
-      </c>
-      <c r="F25">
-        <v>6.8</v>
-      </c>
-      <c r="G25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>5886</v>
-      </c>
-      <c r="F26">
-        <v>0.2</v>
-      </c>
-      <c r="G26">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>5302</v>
-      </c>
-      <c r="F27">
-        <v>0.2</v>
-      </c>
-      <c r="G27">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>6921</v>
-      </c>
-      <c r="F28">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>2649695</v>
-      </c>
-      <c r="F29">
-        <v>66.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1000,12 +798,207 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>-21</v>
+      </c>
+      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>977569</v>
+      </c>
+      <c r="F2">
+        <v>36.9</v>
+      </c>
+      <c r="G2">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>757949</v>
+      </c>
+      <c r="F3">
+        <v>28.6</v>
+      </c>
+      <c r="G3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>717007</v>
+      </c>
+      <c r="F4">
+        <v>27.1</v>
+      </c>
+      <c r="G4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>179061</v>
+      </c>
+      <c r="F5">
+        <v>6.8</v>
+      </c>
+      <c r="G5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>5886</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>5302</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>6921</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2649695</v>
+      </c>
+      <c r="F9">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
